--- a/Geant_simulation/тест CoG.xlsx
+++ b/Geant_simulation/тест CoG.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>x_cog</t>
   </si>
@@ -29,15 +29,42 @@
   </si>
   <si>
     <t>y_cog * N_pe summ</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>(B + C +  A/sqrt(2))/3.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -64,9 +91,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -374,18 +403,20 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="9" max="9" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
     <col min="14" max="15" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1">
-        <v>1.7750999999999999</v>
+        <v>0</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -401,70 +432,70 @@
       </c>
       <c r="H1">
         <f>A1*-20 + B1*-10 +D1*10 + E1*20</f>
-        <v>-35.501999999999995</v>
+        <v>0</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.87382000000000004</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.94645000000000001</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1.6570499999999999</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="H2">
         <f>A2*-20 + B2*-10 +D2*10 + E2*20</f>
-        <v>7.8322999999999983</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
         <f>SUM(A1:E5)</f>
-        <v>23.768630000000002</v>
-      </c>
-      <c r="K2" s="1">
+        <v>2.7828040000000001</v>
+      </c>
+      <c r="K2" s="3">
         <f>SUM(H1:H5)/J2</f>
-        <v>-0.76814692306624266</v>
-      </c>
-      <c r="L2" s="1">
+        <v>3.657393765425089</v>
+      </c>
+      <c r="L2" s="3">
         <f>SUM(A7:E7)/J2</f>
-        <v>-6.2517023488522465</v>
+        <v>-17.51435243013881</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1.2897799999999999</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.1313399999999998</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.13991</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="H3">
         <f>A3*-20 + B3*-10 +D3*10 + E3*20</f>
-        <v>-14.3965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -475,38 +506,38 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.95057999999999998</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.84374000000000005</v>
+        <v>0.69170699999999996</v>
       </c>
       <c r="E4">
-        <v>2.2290800000000002</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <f>A4*-20 + B4*-10 +D4*10 + E4*20</f>
-        <v>53.019000000000005</v>
+        <v>6.9170699999999998</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3.55166</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>1.44414</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.9280600000000001</v>
       </c>
       <c r="D5">
-        <v>2.2455599999999998</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1.69042</v>
+        <v>0.16303699999999999</v>
       </c>
       <c r="H5">
         <f>A5*-20 + B5*-10 +D5*10 + E5*20</f>
-        <v>-29.210599999999999</v>
+        <v>3.2607399999999997</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -520,31 +551,31 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>A1*20 + A2*10 + A4*-10 + A5*-20</f>
-        <v>-35.531199999999998</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <f>B1*20 + B2*10 + B4*-10 + B5*-20</f>
-        <v>-20.144599999999997</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <f>C1*20 + C2*10 + C4*-10 + C5*-20</f>
-        <v>-4.129999999999967E-2</v>
+        <v>-38.561199999999999</v>
       </c>
       <c r="D7">
         <f>D1*20 + D2*10 + D4*-10 + D5*-20</f>
-        <v>-36.778099999999995</v>
+        <v>-6.9170699999999998</v>
       </c>
       <c r="E7">
         <f>E1*20 + E2*10 + E4*-10 + E5*-20</f>
-        <v>-56.099199999999996</v>
+        <v>-3.2607399999999997</v>
       </c>
       <c r="J7">
         <f>SUM(H1:H5)</f>
-        <v>-18.257799999999989</v>
+        <v>10.177809999999999</v>
       </c>
       <c r="K7">
         <f>SUM(A7:E7)</f>
-        <v>-148.59439999999998</v>
+        <v>-48.73901</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -563,6 +594,12 @@
       <c r="E14">
         <v>0</v>
       </c>
+      <c r="H14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -579,6 +616,12 @@
       </c>
       <c r="E15">
         <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -598,7 +641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
@@ -614,8 +657,14 @@
       <c r="E17">
         <v>2.2290800000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>3.371</v>
+      </c>
+      <c r="I17">
+        <v>2.9820000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3.55166</v>
       </c>
@@ -631,8 +680,16 @@
       <c r="E18">
         <v>1.69042</v>
       </c>
+      <c r="H18">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="I18">
+        <f>(H18+I17+H17/(2^0.5))/3</f>
+        <v>2.7892189864599501</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>